--- a/excel_files/season2015_datasheet.xlsx
+++ b/excel_files/season2015_datasheet.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
+  <si>
+    <t/>
+  </si>
   <si>
     <t>2015-09-10</t>
   </si>
@@ -332,6 +335,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
     </font>
   </fonts>
   <fills count="2">
@@ -342,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -350,13 +354,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -678,41 +694,41 @@
   </cols>
   <sheetData>
     <row spans="1:13" r="1">
-      <c t="s" s="1" r="A1">
-        <v>98</v>
-      </c>
-      <c t="s" s="1" r="B1">
-        <v>64</v>
-      </c>
-      <c t="s" s="1" r="C1">
+      <c t="s" s="2" r="A1">
+        <v>99</v>
+      </c>
+      <c t="s" s="2" r="B1">
         <v>65</v>
       </c>
-      <c t="s" s="1" r="D1">
+      <c t="s" s="2" r="C1">
+        <v>66</v>
+      </c>
+      <c t="s" s="2" r="D1">
+        <v>73</v>
+      </c>
+      <c t="s" s="2" r="E1">
         <v>72</v>
       </c>
-      <c t="s" s="1" r="E1">
+      <c t="s" s="2" r="F1">
+        <v>57</v>
+      </c>
+      <c t="s" s="2" r="G1">
+        <v>56</v>
+      </c>
+      <c t="s" s="2" r="H1">
+        <v>97</v>
+      </c>
+      <c t="s" s="2" r="I1">
+        <v>70</v>
+      </c>
+      <c t="s" s="2" r="J1">
         <v>71</v>
       </c>
-      <c t="s" s="1" r="F1">
-        <v>56</v>
-      </c>
-      <c t="s" s="1" r="G1">
+      <c t="s" s="2" r="K1">
+        <v>54</v>
+      </c>
+      <c t="s" s="2" r="L1">
         <v>55</v>
-      </c>
-      <c t="s" s="1" r="H1">
-        <v>96</v>
-      </c>
-      <c t="s" s="1" r="I1">
-        <v>69</v>
-      </c>
-      <c t="s" s="1" r="J1">
-        <v>70</v>
-      </c>
-      <c t="s" s="1" r="K1">
-        <v>53</v>
-      </c>
-      <c t="s" s="1" r="L1">
-        <v>54</v>
       </c>
     </row>
     <row spans="1:13" r="2">
@@ -720,16 +736,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c t="s" r="C2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="D2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="3">
@@ -737,16 +753,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F3">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row spans="1:13" r="4">
@@ -754,16 +770,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D4">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F4">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="5">
@@ -771,16 +787,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C5">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F5">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="6">
@@ -788,16 +804,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C6">
+        <v>93</v>
+      </c>
+      <c t="s" r="D6">
         <v>92</v>
       </c>
-      <c t="s" r="D6">
+      <c t="s" r="F6">
         <v>91</v>
-      </c>
-      <c t="s" r="F6">
-        <v>90</v>
       </c>
     </row>
     <row spans="1:13" r="7">
@@ -805,16 +821,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F7">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="8">
@@ -822,16 +838,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F8">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="9">
@@ -839,16 +855,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F9">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="10">
@@ -856,16 +872,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C10">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D10">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="F10">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="11">
@@ -873,16 +889,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F11">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row spans="1:13" r="12">
@@ -890,16 +906,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C12">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D12">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F12">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row spans="1:13" r="13">
@@ -907,16 +923,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C13">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D13">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F13">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="14">
@@ -924,16 +940,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C14">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D14">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F14">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="15">
@@ -941,16 +957,16 @@
         <v>1</v>
       </c>
       <c t="s" r="B15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c t="s" r="C15">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D15">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F15">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="16">
@@ -958,75 +974,74 @@
         <v>1</v>
       </c>
       <c t="s" r="B16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c t="s" r="C16">
+        <v>80</v>
+      </c>
+      <c t="s" r="D16">
+        <v>53</v>
+      </c>
+      <c t="s" r="F16">
+        <v>86</v>
+      </c>
+    </row>
+    <row spans="1:13" r="17">
+      <c t="n" s="1" r="A17">
+        <v>1</v>
+      </c>
+      <c t="s" s="1" r="B17">
+        <v>3</v>
+      </c>
+      <c t="s" s="1" r="C17">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D17">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="E17"/>
+      <c t="s" s="1" r="F17">
         <v>79</v>
       </c>
-      <c t="s" r="D16">
-        <v>52</v>
-      </c>
-      <c t="s" r="F16">
-        <v>85</v>
-      </c>
-    </row>
-    <row spans="1:13" r="17">
-      <c t="n" r="A17">
-        <v>1</v>
-      </c>
-      <c t="s" r="B17">
-        <v>2</v>
-      </c>
-      <c t="s" r="C17">
-        <v>79</v>
-      </c>
-      <c t="s" r="D17">
-        <v>88</v>
-      </c>
-      <c t="s" r="F17">
-        <v>78</v>
-      </c>
+      <c t="s" s="1" r="G17"/>
+      <c t="s" s="1" r="H17"/>
+      <c t="s" s="1" r="I17"/>
+      <c t="s" s="1" r="J17"/>
+      <c t="s" s="1" r="K17"/>
+      <c t="s" s="1" r="L17"/>
     </row>
     <row spans="1:13" r="18">
       <c t="n" r="A18">
         <v>2</v>
       </c>
-      <c t="s" s="1" r="B18">
-        <v>3</v>
-      </c>
-      <c t="s" s="1" r="C18">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D18">
-        <v>76</v>
-      </c>
-      <c t="s" s="1" r="E18"/>
-      <c t="s" s="1" r="F18">
-        <v>66</v>
-      </c>
-      <c t="s" s="1" r="G18"/>
-      <c t="s" s="1" r="H18"/>
-      <c t="s" s="1" r="I18"/>
-      <c t="s" s="1" r="J18"/>
-      <c t="s" s="1" r="K18"/>
-      <c t="s" s="1" r="L18"/>
-      <c t="s" s="1" r="M18"/>
+      <c t="s" r="B18">
+        <v>4</v>
+      </c>
+      <c t="s" r="C18">
+        <v>96</v>
+      </c>
+      <c t="s" r="D18">
+        <v>77</v>
+      </c>
+      <c t="s" r="F18">
+        <v>67</v>
+      </c>
     </row>
     <row spans="1:13" r="19">
       <c t="n" r="A19">
         <v>2</v>
       </c>
       <c t="s" r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C19">
+        <v>93</v>
+      </c>
+      <c t="s" r="D19">
+        <v>98</v>
+      </c>
+      <c t="s" r="F19">
         <v>92</v>
-      </c>
-      <c t="s" r="D19">
-        <v>97</v>
-      </c>
-      <c t="s" r="F19">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="20">
@@ -1034,16 +1049,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C20">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D20">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F20">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="21">
@@ -1051,16 +1066,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C21">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D21">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F21">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="22">
@@ -1068,16 +1083,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C22">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D22">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="F22">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="23">
@@ -1085,16 +1100,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C23">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D23">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F23">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="24">
@@ -1102,16 +1117,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B24">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C24">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D24">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F24">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="25">
@@ -1119,16 +1134,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C25">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D25">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F25">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="26">
@@ -1136,16 +1151,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C26">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D26">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F26">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="27">
@@ -1153,16 +1168,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C27">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D27">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F27">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="28">
@@ -1170,16 +1185,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C28">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D28">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F28">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row spans="1:13" r="29">
@@ -1187,16 +1202,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B29">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C29">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D29">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F29">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="30">
@@ -1204,16 +1219,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C30">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D30">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F30">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row spans="1:13" r="31">
@@ -1221,16 +1236,16 @@
         <v>2</v>
       </c>
       <c t="s" r="B31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C31">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D31">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F31">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="32">
@@ -1238,75 +1253,74 @@
         <v>2</v>
       </c>
       <c t="s" r="B32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c t="s" r="C32">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D32">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="F32">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="33">
-      <c t="n" r="A33">
+      <c t="n" s="1" r="A33">
         <v>2</v>
       </c>
-      <c t="s" r="B33">
-        <v>5</v>
-      </c>
-      <c t="s" r="C33">
-        <v>79</v>
-      </c>
-      <c t="s" r="D33">
-        <v>74</v>
-      </c>
-      <c t="s" r="F33">
-        <v>83</v>
-      </c>
+      <c t="s" s="1" r="B33">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="C33">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D33">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="E33"/>
+      <c t="s" s="1" r="F33">
+        <v>84</v>
+      </c>
+      <c t="s" s="1" r="G33"/>
+      <c t="s" s="1" r="H33"/>
+      <c t="s" s="1" r="I33"/>
+      <c t="s" s="1" r="J33"/>
+      <c t="s" s="1" r="K33"/>
+      <c t="s" s="1" r="L33"/>
     </row>
     <row spans="1:13" r="34">
       <c t="n" r="A34">
         <v>3</v>
       </c>
-      <c t="s" s="1" r="B34">
-        <v>6</v>
-      </c>
-      <c t="s" s="1" r="C34">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D34">
-        <v>82</v>
-      </c>
-      <c t="s" s="1" r="E34"/>
-      <c t="s" s="1" r="F34">
-        <v>97</v>
-      </c>
-      <c t="s" s="1" r="G34"/>
-      <c t="s" s="1" r="H34"/>
-      <c t="s" s="1" r="I34"/>
-      <c t="s" s="1" r="J34"/>
-      <c t="s" s="1" r="K34"/>
-      <c t="s" s="1" r="L34"/>
-      <c t="s" s="1" r="M34"/>
+      <c t="s" r="B34">
+        <v>7</v>
+      </c>
+      <c t="s" r="C34">
+        <v>96</v>
+      </c>
+      <c t="s" r="D34">
+        <v>83</v>
+      </c>
+      <c t="s" r="F34">
+        <v>98</v>
+      </c>
     </row>
     <row spans="1:13" r="35">
       <c t="n" r="A35">
         <v>3</v>
       </c>
       <c t="s" r="B35">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C35">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D35">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F35">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="36">
@@ -1314,16 +1328,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B36">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C36">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D36">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F36">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="37">
@@ -1331,16 +1345,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B37">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C37">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D37">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F37">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="38">
@@ -1348,16 +1362,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B38">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C38">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D38">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F38">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="39">
@@ -1365,16 +1379,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B39">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C39">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D39">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F39">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="40">
@@ -1382,16 +1396,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B40">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C40">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D40">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F40">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row spans="1:13" r="41">
@@ -1399,16 +1413,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B41">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C41">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D41">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F41">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="42">
@@ -1416,16 +1430,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B42">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C42">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D42">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F42">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="43">
@@ -1433,16 +1447,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B43">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C43">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D43">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F43">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="44">
@@ -1450,16 +1464,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C44">
+        <v>93</v>
+      </c>
+      <c t="s" r="D44">
         <v>92</v>
       </c>
-      <c t="s" r="D44">
-        <v>91</v>
-      </c>
       <c t="s" r="F44">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="45">
@@ -1467,16 +1481,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B45">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C45">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D45">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="F45">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="46">
@@ -1484,16 +1498,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C46">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D46">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F46">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="47">
@@ -1501,16 +1515,16 @@
         <v>3</v>
       </c>
       <c t="s" r="B47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C47">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D47">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F47">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="48">
@@ -1518,75 +1532,74 @@
         <v>3</v>
       </c>
       <c t="s" r="B48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c t="s" r="C48">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D48">
+        <v>68</v>
+      </c>
+      <c t="s" r="F48">
         <v>67</v>
       </c>
-      <c t="s" r="F48">
-        <v>66</v>
-      </c>
     </row>
     <row spans="1:13" r="49">
-      <c t="n" r="A49">
+      <c t="n" s="1" r="A49">
         <v>3</v>
       </c>
-      <c t="s" r="B49">
-        <v>8</v>
-      </c>
-      <c t="s" r="C49">
-        <v>79</v>
-      </c>
-      <c t="s" r="D49">
-        <v>68</v>
-      </c>
-      <c t="s" r="F49">
-        <v>76</v>
-      </c>
+      <c t="s" s="1" r="B49">
+        <v>9</v>
+      </c>
+      <c t="s" s="1" r="C49">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D49">
+        <v>69</v>
+      </c>
+      <c t="s" s="1" r="E49"/>
+      <c t="s" s="1" r="F49">
+        <v>77</v>
+      </c>
+      <c t="s" s="1" r="G49"/>
+      <c t="s" s="1" r="H49"/>
+      <c t="s" s="1" r="I49"/>
+      <c t="s" s="1" r="J49"/>
+      <c t="s" s="1" r="K49"/>
+      <c t="s" s="1" r="L49"/>
     </row>
     <row spans="1:13" r="50">
       <c t="n" r="A50">
         <v>4</v>
       </c>
-      <c t="s" s="1" r="B50">
-        <v>9</v>
-      </c>
-      <c t="s" s="1" r="C50">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D50">
-        <v>86</v>
-      </c>
-      <c t="s" s="1" r="E50"/>
-      <c t="s" s="1" r="F50">
-        <v>57</v>
-      </c>
-      <c t="s" s="1" r="G50"/>
-      <c t="s" s="1" r="H50"/>
-      <c t="s" s="1" r="I50"/>
-      <c t="s" s="1" r="J50"/>
-      <c t="s" s="1" r="K50"/>
-      <c t="s" s="1" r="L50"/>
-      <c t="s" s="1" r="M50"/>
+      <c t="s" r="B50">
+        <v>10</v>
+      </c>
+      <c t="s" r="C50">
+        <v>96</v>
+      </c>
+      <c t="s" r="D50">
+        <v>87</v>
+      </c>
+      <c t="s" r="F50">
+        <v>58</v>
+      </c>
     </row>
     <row spans="1:13" r="51">
       <c t="n" r="A51">
         <v>4</v>
       </c>
       <c t="s" r="B51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C51">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D51">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F51">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row spans="1:13" r="52">
@@ -1594,16 +1607,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B52">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C52">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D52">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F52">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="53">
@@ -1611,16 +1624,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C53">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D53">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F53">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="54">
@@ -1628,16 +1641,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B54">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C54">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D54">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F54">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="55">
@@ -1645,16 +1658,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C55">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D55">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F55">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="56">
@@ -1662,16 +1675,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B56">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C56">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D56">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="F56">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="57">
@@ -1679,16 +1692,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B57">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C57">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D57">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F57">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="58">
@@ -1696,16 +1709,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B58">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C58">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D58">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F58">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="59">
@@ -1713,16 +1726,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C59">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D59">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F59">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="60">
@@ -1730,16 +1743,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B60">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C60">
+        <v>93</v>
+      </c>
+      <c t="s" r="D60">
+        <v>52</v>
+      </c>
+      <c t="s" r="F60">
         <v>92</v>
-      </c>
-      <c t="s" r="D60">
-        <v>51</v>
-      </c>
-      <c t="s" r="F60">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="61">
@@ -1747,16 +1760,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C61">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D61">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="F61">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="62">
@@ -1764,16 +1777,16 @@
         <v>4</v>
       </c>
       <c t="s" r="B62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C62">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D62">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F62">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="63">
@@ -1781,75 +1794,74 @@
         <v>4</v>
       </c>
       <c t="s" r="B63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c t="s" r="C63">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D63">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F63">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="64">
-      <c t="n" r="A64">
+      <c t="n" s="1" r="A64">
         <v>4</v>
       </c>
-      <c t="s" r="B64">
-        <v>11</v>
-      </c>
-      <c t="s" r="C64">
-        <v>79</v>
-      </c>
-      <c t="s" r="D64">
-        <v>90</v>
-      </c>
-      <c t="s" r="F64">
-        <v>67</v>
-      </c>
+      <c t="s" s="1" r="B64">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="C64">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D64">
+        <v>91</v>
+      </c>
+      <c t="s" s="1" r="E64"/>
+      <c t="s" s="1" r="F64">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="G64"/>
+      <c t="s" s="1" r="H64"/>
+      <c t="s" s="1" r="I64"/>
+      <c t="s" s="1" r="J64"/>
+      <c t="s" s="1" r="K64"/>
+      <c t="s" s="1" r="L64"/>
     </row>
     <row spans="1:13" r="65">
       <c t="n" r="A65">
         <v>5</v>
       </c>
-      <c t="s" s="1" r="B65">
-        <v>12</v>
-      </c>
-      <c t="s" s="1" r="C65">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D65">
-        <v>73</v>
-      </c>
-      <c t="s" s="1" r="E65"/>
-      <c t="s" s="1" r="F65">
+      <c t="s" r="B65">
+        <v>13</v>
+      </c>
+      <c t="s" r="C65">
+        <v>96</v>
+      </c>
+      <c t="s" r="D65">
         <v>74</v>
       </c>
-      <c t="s" s="1" r="G65"/>
-      <c t="s" s="1" r="H65"/>
-      <c t="s" s="1" r="I65"/>
-      <c t="s" s="1" r="J65"/>
-      <c t="s" s="1" r="K65"/>
-      <c t="s" s="1" r="L65"/>
-      <c t="s" s="1" r="M65"/>
+      <c t="s" r="F65">
+        <v>75</v>
+      </c>
     </row>
     <row spans="1:13" r="66">
       <c t="n" r="A66">
         <v>5</v>
       </c>
       <c t="s" r="B66">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C66">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D66">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="F66">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="67">
@@ -1857,16 +1869,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B67">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C67">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D67">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F67">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="68">
@@ -1874,16 +1886,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B68">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C68">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D68">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F68">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="69">
@@ -1891,16 +1903,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B69">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C69">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D69">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F69">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="70">
@@ -1908,16 +1920,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B70">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C70">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D70">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F70">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="71">
@@ -1925,16 +1937,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B71">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C71">
+        <v>93</v>
+      </c>
+      <c t="s" r="D71">
+        <v>69</v>
+      </c>
+      <c t="s" r="F71">
         <v>92</v>
-      </c>
-      <c t="s" r="D71">
-        <v>68</v>
-      </c>
-      <c t="s" r="F71">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="72">
@@ -1942,16 +1954,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B72">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C72">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D72">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F72">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="73">
@@ -1959,16 +1971,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B73">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C73">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D73">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F73">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="74">
@@ -1976,16 +1988,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B74">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C74">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D74">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="F74">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="75">
@@ -1993,16 +2005,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B75">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C75">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D75">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F75">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="76">
@@ -2010,16 +2022,16 @@
         <v>5</v>
       </c>
       <c t="s" r="B76">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C76">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D76">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F76">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="77">
@@ -2027,75 +2039,74 @@
         <v>5</v>
       </c>
       <c t="s" r="B77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c t="s" r="C77">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D77">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F77">
+        <v>89</v>
+      </c>
+    </row>
+    <row spans="1:13" r="78">
+      <c t="n" s="1" r="A78">
+        <v>5</v>
+      </c>
+      <c t="s" s="1" r="B78">
+        <v>15</v>
+      </c>
+      <c t="s" s="1" r="C78">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D78">
         <v>88</v>
       </c>
-    </row>
-    <row spans="1:13" r="78">
-      <c t="n" r="A78">
-        <v>5</v>
-      </c>
-      <c t="s" r="B78">
-        <v>14</v>
-      </c>
-      <c t="s" r="C78">
-        <v>79</v>
-      </c>
-      <c t="s" r="D78">
+      <c t="s" s="1" r="E78"/>
+      <c t="s" s="1" r="F78">
         <v>87</v>
       </c>
-      <c t="s" r="F78">
-        <v>86</v>
-      </c>
+      <c t="s" s="1" r="G78"/>
+      <c t="s" s="1" r="H78"/>
+      <c t="s" s="1" r="I78"/>
+      <c t="s" s="1" r="J78"/>
+      <c t="s" s="1" r="K78"/>
+      <c t="s" s="1" r="L78"/>
     </row>
     <row spans="1:13" r="79">
       <c t="n" r="A79">
         <v>6</v>
       </c>
-      <c t="s" s="1" r="B79">
-        <v>15</v>
-      </c>
-      <c t="s" s="1" r="C79">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D79">
-        <v>81</v>
-      </c>
-      <c t="s" s="1" r="E79"/>
-      <c t="s" s="1" r="F79">
-        <v>52</v>
-      </c>
-      <c t="s" s="1" r="G79"/>
-      <c t="s" s="1" r="H79"/>
-      <c t="s" s="1" r="I79"/>
-      <c t="s" s="1" r="J79"/>
-      <c t="s" s="1" r="K79"/>
-      <c t="s" s="1" r="L79"/>
-      <c t="s" s="1" r="M79"/>
+      <c t="s" r="B79">
+        <v>16</v>
+      </c>
+      <c t="s" r="C79">
+        <v>96</v>
+      </c>
+      <c t="s" r="D79">
+        <v>82</v>
+      </c>
+      <c t="s" r="F79">
+        <v>53</v>
+      </c>
     </row>
     <row spans="1:13" r="80">
       <c t="n" r="A80">
         <v>6</v>
       </c>
       <c t="s" r="B80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C80">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D80">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F80">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="81">
@@ -2103,16 +2114,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C81">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D81">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F81">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="82">
@@ -2120,16 +2131,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B82">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C82">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D82">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F82">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="83">
@@ -2137,16 +2148,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B83">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C83">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D83">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F83">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="84">
@@ -2154,16 +2165,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B84">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C84">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D84">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="F84">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="85">
@@ -2171,16 +2182,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B85">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C85">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D85">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F85">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="86">
@@ -2188,16 +2199,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C86">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D86">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F86">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="87">
@@ -2205,16 +2216,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B87">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C87">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D87">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F87">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="88">
@@ -2222,16 +2233,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B88">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C88">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D88">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F88">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="89">
@@ -2239,16 +2250,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B89">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C89">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D89">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="F89">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="90">
@@ -2256,16 +2267,16 @@
         <v>6</v>
       </c>
       <c t="s" r="B90">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C90">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D90">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="F90">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row spans="1:13" r="91">
@@ -2273,75 +2284,74 @@
         <v>6</v>
       </c>
       <c t="s" r="B91">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c t="s" r="C91">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D91">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F91">
+        <v>81</v>
+      </c>
+    </row>
+    <row spans="1:13" r="92">
+      <c t="n" s="1" r="A92">
+        <v>6</v>
+      </c>
+      <c t="s" s="1" r="B92">
+        <v>18</v>
+      </c>
+      <c t="s" s="1" r="C92">
         <v>80</v>
       </c>
-    </row>
-    <row spans="1:13" r="92">
-      <c t="n" r="A92">
-        <v>6</v>
-      </c>
-      <c t="s" r="B92">
-        <v>17</v>
-      </c>
-      <c t="s" r="C92">
-        <v>79</v>
-      </c>
-      <c t="s" r="D92">
-        <v>85</v>
-      </c>
-      <c t="s" r="F92">
-        <v>82</v>
-      </c>
+      <c t="s" s="1" r="D92">
+        <v>86</v>
+      </c>
+      <c t="s" s="1" r="E92"/>
+      <c t="s" s="1" r="F92">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="G92"/>
+      <c t="s" s="1" r="H92"/>
+      <c t="s" s="1" r="I92"/>
+      <c t="s" s="1" r="J92"/>
+      <c t="s" s="1" r="K92"/>
+      <c t="s" s="1" r="L92"/>
     </row>
     <row spans="1:13" r="93">
       <c t="n" r="A93">
         <v>7</v>
       </c>
-      <c t="s" s="1" r="B93">
-        <v>18</v>
-      </c>
-      <c t="s" s="1" r="C93">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D93">
-        <v>88</v>
-      </c>
-      <c t="s" s="1" r="E93"/>
-      <c t="s" s="1" r="F93">
-        <v>90</v>
-      </c>
-      <c t="s" s="1" r="G93"/>
-      <c t="s" s="1" r="H93"/>
-      <c t="s" s="1" r="I93"/>
-      <c t="s" s="1" r="J93"/>
-      <c t="s" s="1" r="K93"/>
-      <c t="s" s="1" r="L93"/>
-      <c t="s" s="1" r="M93"/>
+      <c t="s" r="B93">
+        <v>19</v>
+      </c>
+      <c t="s" r="C93">
+        <v>96</v>
+      </c>
+      <c t="s" r="D93">
+        <v>89</v>
+      </c>
+      <c t="s" r="F93">
+        <v>91</v>
+      </c>
     </row>
     <row spans="1:13" r="94">
       <c t="n" r="A94">
         <v>7</v>
       </c>
       <c t="s" r="B94">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C94">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D94">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F94">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="95">
@@ -2349,16 +2359,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B95">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C95">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D95">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="F95">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="96">
@@ -2366,16 +2376,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B96">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C96">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D96">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F96">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="97">
@@ -2383,16 +2393,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B97">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C97">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D97">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F97">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="98">
@@ -2400,16 +2410,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C98">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D98">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F98">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="99">
@@ -2417,16 +2427,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B99">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C99">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D99">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F99">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="100">
@@ -2434,16 +2444,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B100">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C100">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D100">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F100">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row spans="1:13" r="101">
@@ -2451,16 +2461,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B101">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C101">
+        <v>93</v>
+      </c>
+      <c t="s" r="D101">
         <v>92</v>
       </c>
-      <c t="s" r="D101">
-        <v>91</v>
-      </c>
       <c t="s" r="F101">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="102">
@@ -2468,16 +2478,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B102">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C102">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D102">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F102">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="103">
@@ -2485,16 +2495,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B103">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C103">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D103">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F103">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="104">
@@ -2502,16 +2512,16 @@
         <v>7</v>
       </c>
       <c t="s" r="B104">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C104">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D104">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F104">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="105">
@@ -2519,75 +2529,74 @@
         <v>7</v>
       </c>
       <c t="s" r="B105">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c t="s" r="C105">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D105">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F105">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="106">
-      <c t="n" r="A106">
+      <c t="n" s="1" r="A106">
         <v>7</v>
       </c>
-      <c t="s" r="B106">
-        <v>20</v>
-      </c>
-      <c t="s" r="C106">
-        <v>79</v>
-      </c>
-      <c t="s" r="D106">
-        <v>51</v>
-      </c>
-      <c t="s" r="F106">
-        <v>57</v>
-      </c>
+      <c t="s" s="1" r="B106">
+        <v>21</v>
+      </c>
+      <c t="s" s="1" r="C106">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D106">
+        <v>52</v>
+      </c>
+      <c t="s" s="1" r="E106"/>
+      <c t="s" s="1" r="F106">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="G106"/>
+      <c t="s" s="1" r="H106"/>
+      <c t="s" s="1" r="I106"/>
+      <c t="s" s="1" r="J106"/>
+      <c t="s" s="1" r="K106"/>
+      <c t="s" s="1" r="L106"/>
     </row>
     <row spans="1:13" r="107">
       <c t="n" r="A107">
         <v>8</v>
       </c>
-      <c t="s" s="1" r="B107">
-        <v>21</v>
-      </c>
-      <c t="s" s="1" r="C107">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D107">
-        <v>80</v>
-      </c>
-      <c t="s" s="1" r="E107"/>
-      <c t="s" s="1" r="F107">
-        <v>77</v>
-      </c>
-      <c t="s" s="1" r="G107"/>
-      <c t="s" s="1" r="H107"/>
-      <c t="s" s="1" r="I107"/>
-      <c t="s" s="1" r="J107"/>
-      <c t="s" s="1" r="K107"/>
-      <c t="s" s="1" r="L107"/>
-      <c t="s" s="1" r="M107"/>
+      <c t="s" r="B107">
+        <v>22</v>
+      </c>
+      <c t="s" r="C107">
+        <v>96</v>
+      </c>
+      <c t="s" r="D107">
+        <v>81</v>
+      </c>
+      <c t="s" r="F107">
+        <v>78</v>
+      </c>
     </row>
     <row spans="1:13" r="108">
       <c t="n" r="A108">
         <v>8</v>
       </c>
       <c t="s" r="B108">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C108">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D108">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F108">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row spans="1:13" r="109">
@@ -2595,16 +2604,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B109">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C109">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D109">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F109">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="110">
@@ -2612,16 +2621,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B110">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C110">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D110">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F110">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="111">
@@ -2629,16 +2638,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B111">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C111">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D111">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F111">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="112">
@@ -2646,16 +2655,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B112">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C112">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D112">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F112">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="113">
@@ -2663,16 +2672,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B113">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C113">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D113">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F113">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="114">
@@ -2680,16 +2689,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B114">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C114">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D114">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F114">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="115">
@@ -2697,16 +2706,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B115">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C115">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D115">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F115">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="116">
@@ -2714,16 +2723,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B116">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C116">
+        <v>93</v>
+      </c>
+      <c t="s" r="D116">
         <v>92</v>
       </c>
-      <c t="s" r="D116">
-        <v>91</v>
-      </c>
       <c t="s" r="F116">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="117">
@@ -2731,16 +2740,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B117">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C117">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D117">
+        <v>85</v>
+      </c>
+      <c t="s" r="F117">
         <v>84</v>
-      </c>
-      <c t="s" r="F117">
-        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="118">
@@ -2748,16 +2757,16 @@
         <v>8</v>
       </c>
       <c t="s" r="B118">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C118">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D118">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F118">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="119">
@@ -2765,75 +2774,74 @@
         <v>8</v>
       </c>
       <c t="s" r="B119">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s" r="C119">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D119">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F119">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="120">
-      <c t="n" r="A120">
+      <c t="n" s="1" r="A120">
         <v>8</v>
       </c>
-      <c t="s" r="B120">
-        <v>23</v>
-      </c>
-      <c t="s" r="C120">
-        <v>79</v>
-      </c>
-      <c t="s" r="D120">
-        <v>59</v>
-      </c>
-      <c t="s" r="F120">
-        <v>74</v>
-      </c>
+      <c t="s" s="1" r="B120">
+        <v>24</v>
+      </c>
+      <c t="s" s="1" r="C120">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D120">
+        <v>60</v>
+      </c>
+      <c t="s" s="1" r="E120"/>
+      <c t="s" s="1" r="F120">
+        <v>75</v>
+      </c>
+      <c t="s" s="1" r="G120"/>
+      <c t="s" s="1" r="H120"/>
+      <c t="s" s="1" r="I120"/>
+      <c t="s" s="1" r="J120"/>
+      <c t="s" s="1" r="K120"/>
+      <c t="s" s="1" r="L120"/>
     </row>
     <row spans="1:13" r="121">
       <c t="n" r="A121">
         <v>9</v>
       </c>
-      <c t="s" s="1" r="B121">
-        <v>24</v>
-      </c>
-      <c t="s" s="1" r="C121">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D121">
-        <v>61</v>
-      </c>
-      <c t="s" s="1" r="E121"/>
-      <c t="s" s="1" r="F121">
+      <c t="s" r="B121">
+        <v>25</v>
+      </c>
+      <c t="s" r="C121">
+        <v>96</v>
+      </c>
+      <c t="s" r="D121">
         <v>62</v>
       </c>
-      <c t="s" s="1" r="G121"/>
-      <c t="s" s="1" r="H121"/>
-      <c t="s" s="1" r="I121"/>
-      <c t="s" s="1" r="J121"/>
-      <c t="s" s="1" r="K121"/>
-      <c t="s" s="1" r="L121"/>
-      <c t="s" s="1" r="M121"/>
+      <c t="s" r="F121">
+        <v>63</v>
+      </c>
     </row>
     <row spans="1:13" r="122">
       <c t="n" r="A122">
         <v>9</v>
       </c>
       <c t="s" r="B122">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C122">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D122">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F122">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="123">
@@ -2841,16 +2849,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B123">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C123">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D123">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F123">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="124">
@@ -2858,16 +2866,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B124">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C124">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D124">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F124">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="125">
@@ -2875,16 +2883,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B125">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C125">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D125">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F125">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="126">
@@ -2892,16 +2900,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B126">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C126">
+        <v>93</v>
+      </c>
+      <c t="s" r="D126">
+        <v>79</v>
+      </c>
+      <c t="s" r="F126">
         <v>92</v>
-      </c>
-      <c t="s" r="D126">
-        <v>78</v>
-      </c>
-      <c t="s" r="F126">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="127">
@@ -2909,16 +2917,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B127">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C127">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D127">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F127">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="128">
@@ -2926,16 +2934,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B128">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C128">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D128">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F128">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="129">
@@ -2943,16 +2951,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B129">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C129">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D129">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F129">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="130">
@@ -2960,16 +2968,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B130">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C130">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D130">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="F130">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="131">
@@ -2977,16 +2985,16 @@
         <v>9</v>
       </c>
       <c t="s" r="B131">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C131">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D131">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F131">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="132">
@@ -2994,75 +3002,74 @@
         <v>9</v>
       </c>
       <c t="s" r="B132">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c t="s" r="C132">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D132">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F132">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="133">
-      <c t="n" r="A133">
+      <c t="n" s="1" r="A133">
         <v>9</v>
       </c>
-      <c t="s" r="B133">
-        <v>26</v>
-      </c>
-      <c t="s" r="C133">
-        <v>79</v>
-      </c>
-      <c t="s" r="D133">
-        <v>87</v>
-      </c>
-      <c t="s" r="F133">
-        <v>60</v>
-      </c>
+      <c t="s" s="1" r="B133">
+        <v>27</v>
+      </c>
+      <c t="s" s="1" r="C133">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D133">
+        <v>88</v>
+      </c>
+      <c t="s" s="1" r="E133"/>
+      <c t="s" s="1" r="F133">
+        <v>61</v>
+      </c>
+      <c t="s" s="1" r="G133"/>
+      <c t="s" s="1" r="H133"/>
+      <c t="s" s="1" r="I133"/>
+      <c t="s" s="1" r="J133"/>
+      <c t="s" s="1" r="K133"/>
+      <c t="s" s="1" r="L133"/>
     </row>
     <row spans="1:13" r="134">
       <c t="n" r="A134">
         <v>10</v>
       </c>
-      <c t="s" s="1" r="B134">
-        <v>27</v>
-      </c>
-      <c t="s" s="1" r="C134">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D134">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="E134"/>
-      <c t="s" s="1" r="F134">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="G134"/>
-      <c t="s" s="1" r="H134"/>
-      <c t="s" s="1" r="I134"/>
-      <c t="s" s="1" r="J134"/>
-      <c t="s" s="1" r="K134"/>
-      <c t="s" s="1" r="L134"/>
-      <c t="s" s="1" r="M134"/>
+      <c t="s" r="B134">
+        <v>28</v>
+      </c>
+      <c t="s" r="C134">
+        <v>96</v>
+      </c>
+      <c t="s" r="D134">
+        <v>84</v>
+      </c>
+      <c t="s" r="F134">
+        <v>59</v>
+      </c>
     </row>
     <row spans="1:13" r="135">
       <c t="n" r="A135">
         <v>10</v>
       </c>
       <c t="s" r="B135">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C135">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D135">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F135">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="136">
@@ -3070,16 +3077,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B136">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C136">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D136">
+        <v>69</v>
+      </c>
+      <c t="s" r="F136">
         <v>68</v>
-      </c>
-      <c t="s" r="F136">
-        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="137">
@@ -3087,16 +3094,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B137">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C137">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D137">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F137">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="138">
@@ -3104,16 +3111,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B138">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C138">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D138">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F138">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="139">
@@ -3121,16 +3128,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B139">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C139">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D139">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F139">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="140">
@@ -3138,16 +3145,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B140">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C140">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D140">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F140">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="141">
@@ -3155,16 +3162,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B141">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C141">
+        <v>93</v>
+      </c>
+      <c t="s" r="D141">
         <v>92</v>
       </c>
-      <c t="s" r="D141">
-        <v>91</v>
-      </c>
       <c t="s" r="F141">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="142">
@@ -3172,16 +3179,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B142">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C142">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D142">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F142">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="143">
@@ -3189,16 +3196,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B143">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C143">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D143">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F143">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="144">
@@ -3206,16 +3213,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B144">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C144">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D144">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F144">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="145">
@@ -3223,16 +3230,16 @@
         <v>10</v>
       </c>
       <c t="s" r="B145">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C145">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D145">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F145">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="146">
@@ -3240,75 +3247,74 @@
         <v>10</v>
       </c>
       <c t="s" r="B146">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="C146">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D146">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F146">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="147">
-      <c t="n" r="A147">
+      <c t="n" s="1" r="A147">
         <v>10</v>
       </c>
-      <c t="s" r="B147">
-        <v>29</v>
-      </c>
-      <c t="s" r="C147">
-        <v>79</v>
-      </c>
-      <c t="s" r="D147">
-        <v>61</v>
-      </c>
-      <c t="s" r="F147">
-        <v>73</v>
-      </c>
+      <c t="s" s="1" r="B147">
+        <v>30</v>
+      </c>
+      <c t="s" s="1" r="C147">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D147">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="E147"/>
+      <c t="s" s="1" r="F147">
+        <v>74</v>
+      </c>
+      <c t="s" s="1" r="G147"/>
+      <c t="s" s="1" r="H147"/>
+      <c t="s" s="1" r="I147"/>
+      <c t="s" s="1" r="J147"/>
+      <c t="s" s="1" r="K147"/>
+      <c t="s" s="1" r="L147"/>
     </row>
     <row spans="1:13" r="148">
       <c t="n" r="A148">
         <v>11</v>
       </c>
-      <c t="s" s="1" r="B148">
-        <v>30</v>
-      </c>
-      <c t="s" s="1" r="C148">
+      <c t="s" r="B148">
+        <v>31</v>
+      </c>
+      <c t="s" r="C148">
+        <v>96</v>
+      </c>
+      <c t="s" r="D148">
+        <v>76</v>
+      </c>
+      <c t="s" r="F148">
         <v>95</v>
       </c>
-      <c t="s" s="1" r="D148">
-        <v>75</v>
-      </c>
-      <c t="s" s="1" r="E148"/>
-      <c t="s" s="1" r="F148">
-        <v>94</v>
-      </c>
-      <c t="s" s="1" r="G148"/>
-      <c t="s" s="1" r="H148"/>
-      <c t="s" s="1" r="I148"/>
-      <c t="s" s="1" r="J148"/>
-      <c t="s" s="1" r="K148"/>
-      <c t="s" s="1" r="L148"/>
-      <c t="s" s="1" r="M148"/>
     </row>
     <row spans="1:13" r="149">
       <c t="n" r="A149">
         <v>11</v>
       </c>
       <c t="s" r="B149">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C149">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D149">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F149">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row spans="1:13" r="150">
@@ -3316,16 +3322,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B150">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C150">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D150">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F150">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row spans="1:13" r="151">
@@ -3333,16 +3339,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B151">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C151">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D151">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F151">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="152">
@@ -3350,16 +3356,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B152">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C152">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D152">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="F152">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="153">
@@ -3367,16 +3373,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B153">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C153">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D153">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F153">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="154">
@@ -3384,16 +3390,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B154">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C154">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D154">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F154">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="155">
@@ -3401,16 +3407,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B155">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C155">
+        <v>93</v>
+      </c>
+      <c t="s" r="D155">
+        <v>58</v>
+      </c>
+      <c t="s" r="F155">
         <v>92</v>
-      </c>
-      <c t="s" r="D155">
-        <v>57</v>
-      </c>
-      <c t="s" r="F155">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="156">
@@ -3418,16 +3424,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B156">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C156">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D156">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F156">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="157">
@@ -3435,16 +3441,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B157">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C157">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D157">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F157">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="158">
@@ -3452,16 +3458,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B158">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C158">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D158">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="F158">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="159">
@@ -3469,16 +3475,16 @@
         <v>11</v>
       </c>
       <c t="s" r="B159">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C159">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D159">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F159">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="160">
@@ -3486,75 +3492,74 @@
         <v>11</v>
       </c>
       <c t="s" r="B160">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c t="s" r="C160">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D160">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F160">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="161">
-      <c t="n" r="A161">
+      <c t="n" s="1" r="A161">
         <v>11</v>
       </c>
-      <c t="s" r="B161">
-        <v>32</v>
-      </c>
-      <c t="s" r="C161">
-        <v>79</v>
-      </c>
-      <c t="s" r="D161">
+      <c t="s" s="1" r="B161">
+        <v>33</v>
+      </c>
+      <c t="s" s="1" r="C161">
         <v>80</v>
       </c>
-      <c t="s" r="F161">
-        <v>58</v>
-      </c>
+      <c t="s" s="1" r="D161">
+        <v>81</v>
+      </c>
+      <c t="s" s="1" r="E161"/>
+      <c t="s" s="1" r="F161">
+        <v>59</v>
+      </c>
+      <c t="s" s="1" r="G161"/>
+      <c t="s" s="1" r="H161"/>
+      <c t="s" s="1" r="I161"/>
+      <c t="s" s="1" r="J161"/>
+      <c t="s" s="1" r="K161"/>
+      <c t="s" s="1" r="L161"/>
     </row>
     <row spans="1:13" r="162">
       <c t="n" r="A162">
         <v>12</v>
       </c>
-      <c t="s" s="1" r="B162">
-        <v>33</v>
-      </c>
-      <c t="s" s="1" r="C162">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D162">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="E162"/>
-      <c t="s" s="1" r="F162">
-        <v>85</v>
-      </c>
-      <c t="s" s="1" r="G162"/>
-      <c t="s" s="1" r="H162"/>
-      <c t="s" s="1" r="I162"/>
-      <c t="s" s="1" r="J162"/>
-      <c t="s" s="1" r="K162"/>
-      <c t="s" s="1" r="L162"/>
-      <c t="s" s="1" r="M162"/>
+      <c t="s" r="B162">
+        <v>34</v>
+      </c>
+      <c t="s" r="C162">
+        <v>96</v>
+      </c>
+      <c t="s" r="D162">
+        <v>68</v>
+      </c>
+      <c t="s" r="F162">
+        <v>86</v>
+      </c>
     </row>
     <row spans="1:13" r="163">
       <c t="n" r="A163">
         <v>12</v>
       </c>
       <c t="s" r="B163">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="C163">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="D163">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F163">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="164">
@@ -3562,16 +3567,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B164">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="C164">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="D164">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="F164">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="165">
@@ -3579,16 +3584,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B165">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C165">
+        <v>93</v>
+      </c>
+      <c t="s" r="D165">
+        <v>62</v>
+      </c>
+      <c t="s" r="F165">
         <v>92</v>
-      </c>
-      <c t="s" r="D165">
-        <v>61</v>
-      </c>
-      <c t="s" r="F165">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="166">
@@ -3596,16 +3601,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B166">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C166">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D166">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F166">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="167">
@@ -3613,16 +3618,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B167">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C167">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D167">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F167">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="168">
@@ -3630,16 +3635,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B168">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C168">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D168">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F168">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="169">
@@ -3647,16 +3652,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B169">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C169">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D169">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F169">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="170">
@@ -3664,16 +3669,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B170">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C170">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D170">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F170">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="171">
@@ -3681,16 +3686,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B171">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C171">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D171">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F171">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="172">
@@ -3698,16 +3703,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B172">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C172">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D172">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F172">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="173">
@@ -3715,16 +3720,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B173">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C173">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D173">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F173">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="174">
@@ -3732,16 +3737,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B174">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C174">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D174">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="F174">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="175">
@@ -3749,16 +3754,16 @@
         <v>12</v>
       </c>
       <c t="s" r="B175">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C175">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D175">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F175">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="176">
@@ -3766,75 +3771,74 @@
         <v>12</v>
       </c>
       <c t="s" r="B176">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="C176">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D176">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F176">
+        <v>81</v>
+      </c>
+    </row>
+    <row spans="1:13" r="177">
+      <c t="n" s="1" r="A177">
+        <v>12</v>
+      </c>
+      <c t="s" s="1" r="B177">
+        <v>36</v>
+      </c>
+      <c t="s" s="1" r="C177">
         <v>80</v>
       </c>
-    </row>
-    <row spans="1:13" r="177">
-      <c t="n" r="A177">
-        <v>12</v>
-      </c>
-      <c t="s" r="B177">
-        <v>35</v>
-      </c>
-      <c t="s" r="C177">
-        <v>79</v>
-      </c>
-      <c t="s" r="D177">
-        <v>62</v>
-      </c>
-      <c t="s" r="F177">
-        <v>57</v>
-      </c>
+      <c t="s" s="1" r="D177">
+        <v>63</v>
+      </c>
+      <c t="s" s="1" r="E177"/>
+      <c t="s" s="1" r="F177">
+        <v>58</v>
+      </c>
+      <c t="s" s="1" r="G177"/>
+      <c t="s" s="1" r="H177"/>
+      <c t="s" s="1" r="I177"/>
+      <c t="s" s="1" r="J177"/>
+      <c t="s" s="1" r="K177"/>
+      <c t="s" s="1" r="L177"/>
     </row>
     <row spans="1:13" r="178">
       <c t="n" r="A178">
         <v>13</v>
       </c>
-      <c t="s" s="1" r="B178">
-        <v>36</v>
-      </c>
-      <c t="s" s="1" r="C178">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D178">
-        <v>67</v>
-      </c>
-      <c t="s" s="1" r="E178"/>
-      <c t="s" s="1" r="F178">
+      <c t="s" r="B178">
+        <v>37</v>
+      </c>
+      <c t="s" r="C178">
+        <v>96</v>
+      </c>
+      <c t="s" r="D178">
         <v>68</v>
       </c>
-      <c t="s" s="1" r="G178"/>
-      <c t="s" s="1" r="H178"/>
-      <c t="s" s="1" r="I178"/>
-      <c t="s" s="1" r="J178"/>
-      <c t="s" s="1" r="K178"/>
-      <c t="s" s="1" r="L178"/>
-      <c t="s" s="1" r="M178"/>
+      <c t="s" r="F178">
+        <v>69</v>
+      </c>
     </row>
     <row spans="1:13" r="179">
       <c t="n" r="A179">
         <v>13</v>
       </c>
       <c t="s" r="B179">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C179">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D179">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F179">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row spans="1:13" r="180">
@@ -3842,16 +3846,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B180">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C180">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D180">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F180">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="181">
@@ -3859,16 +3863,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B181">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C181">
+        <v>93</v>
+      </c>
+      <c t="s" r="D181">
         <v>92</v>
       </c>
-      <c t="s" r="D181">
-        <v>91</v>
-      </c>
       <c t="s" r="F181">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="182">
@@ -3876,16 +3880,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B182">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C182">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D182">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F182">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="183">
@@ -3893,16 +3897,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B183">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C183">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D183">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F183">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="184">
@@ -3910,16 +3914,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B184">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C184">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D184">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F184">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="185">
@@ -3927,16 +3931,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B185">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C185">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D185">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F185">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row spans="1:13" r="186">
@@ -3944,16 +3948,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B186">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C186">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D186">
+        <v>63</v>
+      </c>
+      <c t="s" r="F186">
         <v>62</v>
-      </c>
-      <c t="s" r="F186">
-        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="187">
@@ -3961,16 +3965,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B187">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C187">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D187">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F187">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="188">
@@ -3978,16 +3982,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B188">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C188">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D188">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F188">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="189">
@@ -3995,16 +3999,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B189">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C189">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D189">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F189">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="190">
@@ -4012,16 +4016,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B190">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C190">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D190">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F190">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="191">
@@ -4029,16 +4033,16 @@
         <v>13</v>
       </c>
       <c t="s" r="B191">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C191">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D191">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F191">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="192">
@@ -4046,75 +4050,74 @@
         <v>13</v>
       </c>
       <c t="s" r="B192">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="C192">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D192">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F192">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row spans="1:13" r="193">
-      <c t="n" r="A193">
+      <c t="n" s="1" r="A193">
         <v>13</v>
       </c>
-      <c t="s" r="B193">
-        <v>38</v>
-      </c>
-      <c t="s" r="C193">
-        <v>79</v>
-      </c>
-      <c t="s" r="D193">
-        <v>97</v>
-      </c>
-      <c t="s" r="F193">
-        <v>63</v>
-      </c>
+      <c t="s" s="1" r="B193">
+        <v>39</v>
+      </c>
+      <c t="s" s="1" r="C193">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D193">
+        <v>98</v>
+      </c>
+      <c t="s" s="1" r="E193"/>
+      <c t="s" s="1" r="F193">
+        <v>64</v>
+      </c>
+      <c t="s" s="1" r="G193"/>
+      <c t="s" s="1" r="H193"/>
+      <c t="s" s="1" r="I193"/>
+      <c t="s" s="1" r="J193"/>
+      <c t="s" s="1" r="K193"/>
+      <c t="s" s="1" r="L193"/>
     </row>
     <row spans="1:13" r="194">
       <c t="n" r="A194">
         <v>14</v>
       </c>
-      <c t="s" s="1" r="B194">
-        <v>39</v>
-      </c>
-      <c t="s" s="1" r="C194">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D194">
-        <v>51</v>
-      </c>
-      <c t="s" s="1" r="E194"/>
-      <c t="s" s="1" r="F194">
-        <v>78</v>
-      </c>
-      <c t="s" s="1" r="G194"/>
-      <c t="s" s="1" r="H194"/>
-      <c t="s" s="1" r="I194"/>
-      <c t="s" s="1" r="J194"/>
-      <c t="s" s="1" r="K194"/>
-      <c t="s" s="1" r="L194"/>
-      <c t="s" s="1" r="M194"/>
+      <c t="s" r="B194">
+        <v>40</v>
+      </c>
+      <c t="s" r="C194">
+        <v>96</v>
+      </c>
+      <c t="s" r="D194">
+        <v>52</v>
+      </c>
+      <c t="s" r="F194">
+        <v>79</v>
+      </c>
     </row>
     <row spans="1:13" r="195">
       <c t="n" r="A195">
         <v>14</v>
       </c>
       <c t="s" r="B195">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C195">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D195">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F195">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="196">
@@ -4122,16 +4125,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B196">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C196">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D196">
+        <v>76</v>
+      </c>
+      <c t="s" r="F196">
         <v>75</v>
-      </c>
-      <c t="s" r="F196">
-        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="197">
@@ -4139,16 +4142,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B197">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C197">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D197">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F197">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="198">
@@ -4156,16 +4159,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B198">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C198">
+        <v>93</v>
+      </c>
+      <c t="s" r="D198">
         <v>92</v>
       </c>
-      <c t="s" r="D198">
-        <v>91</v>
-      </c>
       <c t="s" r="F198">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row spans="1:13" r="199">
@@ -4173,16 +4176,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B199">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C199">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D199">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F199">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="200">
@@ -4190,16 +4193,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B200">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C200">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D200">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F200">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="201">
@@ -4207,16 +4210,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B201">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C201">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D201">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F201">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="202">
@@ -4224,16 +4227,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B202">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C202">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D202">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F202">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="203">
@@ -4241,16 +4244,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B203">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C203">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D203">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="F203">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="204">
@@ -4258,16 +4261,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B204">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C204">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D204">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F204">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="205">
@@ -4275,16 +4278,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B205">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C205">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D205">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F205">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="206">
@@ -4292,16 +4295,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B206">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C206">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D206">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F206">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="207">
@@ -4309,16 +4312,16 @@
         <v>14</v>
       </c>
       <c t="s" r="B207">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C207">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D207">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="F207">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="208">
@@ -4326,75 +4329,74 @@
         <v>14</v>
       </c>
       <c t="s" r="B208">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="C208">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D208">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F208">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="209">
-      <c t="n" r="A209">
+      <c t="n" s="1" r="A209">
         <v>14</v>
       </c>
-      <c t="s" r="B209">
-        <v>41</v>
-      </c>
-      <c t="s" r="C209">
-        <v>79</v>
-      </c>
-      <c t="s" r="D209">
-        <v>77</v>
-      </c>
-      <c t="s" r="F209">
-        <v>82</v>
-      </c>
+      <c t="s" s="1" r="B209">
+        <v>42</v>
+      </c>
+      <c t="s" s="1" r="C209">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D209">
+        <v>78</v>
+      </c>
+      <c t="s" s="1" r="E209"/>
+      <c t="s" s="1" r="F209">
+        <v>83</v>
+      </c>
+      <c t="s" s="1" r="G209"/>
+      <c t="s" s="1" r="H209"/>
+      <c t="s" s="1" r="I209"/>
+      <c t="s" s="1" r="J209"/>
+      <c t="s" s="1" r="K209"/>
+      <c t="s" s="1" r="L209"/>
     </row>
     <row spans="1:13" r="210">
       <c t="n" r="A210">
         <v>15</v>
       </c>
-      <c t="s" s="1" r="B210">
-        <v>42</v>
-      </c>
-      <c t="s" s="1" r="C210">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D210">
-        <v>91</v>
-      </c>
-      <c t="s" s="1" r="E210"/>
-      <c t="s" s="1" r="F210">
-        <v>93</v>
-      </c>
-      <c t="s" s="1" r="G210"/>
-      <c t="s" s="1" r="H210"/>
-      <c t="s" s="1" r="I210"/>
-      <c t="s" s="1" r="J210"/>
-      <c t="s" s="1" r="K210"/>
-      <c t="s" s="1" r="L210"/>
-      <c t="s" s="1" r="M210"/>
+      <c t="s" r="B210">
+        <v>43</v>
+      </c>
+      <c t="s" r="C210">
+        <v>96</v>
+      </c>
+      <c t="s" r="D210">
+        <v>92</v>
+      </c>
+      <c t="s" r="F210">
+        <v>94</v>
+      </c>
     </row>
     <row spans="1:13" r="211">
       <c t="n" r="A211">
         <v>15</v>
       </c>
       <c t="s" r="B211">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="C211">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="D211">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F211">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row spans="1:13" r="212">
@@ -4402,16 +4404,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B212">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C212">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D212">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="F212">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="213">
@@ -4419,16 +4421,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B213">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C213">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D213">
+        <v>75</v>
+      </c>
+      <c t="s" r="F213">
         <v>74</v>
-      </c>
-      <c t="s" r="F213">
-        <v>73</v>
       </c>
     </row>
     <row spans="1:13" r="214">
@@ -4436,16 +4438,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B214">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C214">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D214">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="F214">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row spans="1:13" r="215">
@@ -4453,16 +4455,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B215">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C215">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D215">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F215">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="216">
@@ -4470,16 +4472,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B216">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C216">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D216">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F216">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row spans="1:13" r="217">
@@ -4487,16 +4489,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B217">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C217">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D217">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F217">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="218">
@@ -4504,16 +4506,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B218">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C218">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D218">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F218">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row spans="1:13" r="219">
@@ -4521,16 +4523,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B219">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C219">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D219">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="F219">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row spans="1:13" r="220">
@@ -4538,16 +4540,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B220">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C220">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D220">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="F220">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="221">
@@ -4555,16 +4557,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B221">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C221">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D221">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="F221">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="222">
@@ -4572,16 +4574,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B222">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C222">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D222">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="F222">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row spans="1:13" r="223">
@@ -4589,16 +4591,16 @@
         <v>15</v>
       </c>
       <c t="s" r="B223">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C223">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D223">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="F223">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row spans="1:13" r="224">
@@ -4606,75 +4608,74 @@
         <v>15</v>
       </c>
       <c t="s" r="B224">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="C224">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D224">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="F224">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row spans="1:13" r="225">
-      <c t="n" r="A225">
+      <c t="n" s="1" r="A225">
         <v>15</v>
       </c>
-      <c t="s" r="B225">
-        <v>45</v>
-      </c>
-      <c t="s" r="C225">
-        <v>79</v>
-      </c>
-      <c t="s" r="D225">
-        <v>81</v>
-      </c>
-      <c t="s" r="F225">
-        <v>67</v>
-      </c>
+      <c t="s" s="1" r="B225">
+        <v>46</v>
+      </c>
+      <c t="s" s="1" r="C225">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D225">
+        <v>82</v>
+      </c>
+      <c t="s" s="1" r="E225"/>
+      <c t="s" s="1" r="F225">
+        <v>68</v>
+      </c>
+      <c t="s" s="1" r="G225"/>
+      <c t="s" s="1" r="H225"/>
+      <c t="s" s="1" r="I225"/>
+      <c t="s" s="1" r="J225"/>
+      <c t="s" s="1" r="K225"/>
+      <c t="s" s="1" r="L225"/>
     </row>
     <row spans="1:13" r="226">
       <c t="n" r="A226">
         <v>16</v>
       </c>
-      <c t="s" s="1" r="B226">
-        <v>46</v>
-      </c>
-      <c t="s" s="1" r="C226">
-        <v>95</v>
-      </c>
-      <c t="s" s="1" r="D226">
-        <v>84</v>
-      </c>
-      <c t="s" s="1" r="E226"/>
-      <c t="s" s="1" r="F226">
-        <v>87</v>
-      </c>
-      <c t="s" s="1" r="G226"/>
-      <c t="s" s="1" r="H226"/>
-      <c t="s" s="1" r="I226"/>
-      <c t="s" s="1" r="J226"/>
-      <c t="s" s="1" r="K226"/>
-      <c t="s" s="1" r="L226"/>
-      <c t="s" s="1" r="M226"/>
+      <c t="s" r="B226">
+        <v>47</v>
+      </c>
+      <c t="s" r="C226">
+        <v>96</v>
+      </c>
+      <c t="s" r="D226">
+        <v>85</v>
+      </c>
+      <c t="s" r="F226">
+        <v>88</v>
+      </c>
     </row>
     <row spans="1:13" r="227">
       <c t="n" r="A227">
         <v>16</v>
       </c>
       <c t="s" r="B227">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="C227">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="D227">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="F227">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="228">
@@ -4682,16 +4683,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B228">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C228">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D228">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F228">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row spans="1:13" r="229">
@@ -4699,16 +4700,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B229">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C229">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D229">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="F229">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="230">
@@ -4716,16 +4717,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B230">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C230">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D230">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="F230">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="231">
@@ -4733,16 +4734,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B231">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C231">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D231">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="F231">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row spans="1:13" r="232">
@@ -4750,16 +4751,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B232">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C232">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D232">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="F232">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row spans="1:13" r="233">
@@ -4767,16 +4768,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B233">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C233">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D233">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F233">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row spans="1:13" r="234">
@@ -4784,16 +4785,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B234">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C234">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D234">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="F234">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row spans="1:13" r="235">
@@ -4801,16 +4802,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B235">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C235">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D235">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F235">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row spans="1:13" r="236">
@@ -4818,16 +4819,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B236">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C236">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D236">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="F236">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row spans="1:13" r="237">
@@ -4835,16 +4836,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B237">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C237">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D237">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="F237">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row spans="1:13" r="238">
@@ -4852,16 +4853,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B238">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C238">
+        <v>93</v>
+      </c>
+      <c t="s" r="D238">
+        <v>91</v>
+      </c>
+      <c t="s" r="F238">
         <v>92</v>
-      </c>
-      <c t="s" r="D238">
-        <v>90</v>
-      </c>
-      <c t="s" r="F238">
-        <v>91</v>
       </c>
     </row>
     <row spans="1:13" r="239">
@@ -4869,16 +4870,16 @@
         <v>16</v>
       </c>
       <c t="s" r="B239">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C239">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D239">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="F239">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row spans="1:13" r="240">
@@ -4886,75 +4887,74 @@
         <v>16</v>
       </c>
       <c t="s" r="B240">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="C240">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D240">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="F240">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="241">
-      <c t="n" r="A241">
+      <c t="n" s="1" r="A241">
         <v>16</v>
       </c>
-      <c t="s" r="B241">
-        <v>49</v>
-      </c>
-      <c t="s" r="C241">
-        <v>79</v>
-      </c>
-      <c t="s" r="D241">
-        <v>66</v>
-      </c>
-      <c t="s" r="F241">
-        <v>61</v>
-      </c>
+      <c t="s" s="1" r="B241">
+        <v>50</v>
+      </c>
+      <c t="s" s="1" r="C241">
+        <v>80</v>
+      </c>
+      <c t="s" s="1" r="D241">
+        <v>67</v>
+      </c>
+      <c t="s" s="1" r="E241"/>
+      <c t="s" s="1" r="F241">
+        <v>62</v>
+      </c>
+      <c t="s" s="1" r="G241"/>
+      <c t="s" s="1" r="H241"/>
+      <c t="s" s="1" r="I241"/>
+      <c t="s" s="1" r="J241"/>
+      <c t="s" s="1" r="K241"/>
+      <c t="s" s="1" r="L241"/>
     </row>
     <row spans="1:13" r="242">
       <c t="n" r="A242">
         <v>17</v>
       </c>
-      <c t="s" s="1" r="B242">
-        <v>50</v>
-      </c>
-      <c t="s" s="1" r="C242">
-        <v>92</v>
-      </c>
-      <c t="s" s="1" r="D242">
-        <v>58</v>
-      </c>
-      <c t="s" s="1" r="E242"/>
-      <c t="s" s="1" r="F242">
-        <v>83</v>
-      </c>
-      <c t="s" s="1" r="G242"/>
-      <c t="s" s="1" r="H242"/>
-      <c t="s" s="1" r="I242"/>
-      <c t="s" s="1" r="J242"/>
-      <c t="s" s="1" r="K242"/>
-      <c t="s" s="1" r="L242"/>
-      <c t="s" s="1" r="M242"/>
+      <c t="s" r="B242">
+        <v>51</v>
+      </c>
+      <c t="s" r="C242">
+        <v>93</v>
+      </c>
+      <c t="s" r="D242">
+        <v>59</v>
+      </c>
+      <c t="s" r="F242">
+        <v>84</v>
+      </c>
     </row>
     <row spans="1:13" r="243">
       <c t="n" r="A243">
         <v>17</v>
       </c>
       <c t="s" r="B243">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C243">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D243">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="F243">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row spans="1:13" r="244">
@@ -4962,16 +4962,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B244">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C244">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D244">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="F244">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row spans="1:13" r="245">
@@ -4979,16 +4979,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B245">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C245">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D245">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="F245">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row spans="1:13" r="246">
@@ -4996,16 +4996,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B246">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C246">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D246">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="F246">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row spans="1:13" r="247">
@@ -5013,16 +5013,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B247">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C247">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D247">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c t="s" r="F247">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row spans="1:13" r="248">
@@ -5030,16 +5030,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B248">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C248">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D248">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="F248">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row spans="1:13" r="249">
@@ -5047,16 +5047,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B249">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C249">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D249">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="F249">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row spans="1:13" r="250">
@@ -5064,16 +5064,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B250">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C250">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D250">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="F250">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row spans="1:13" r="251">
@@ -5081,16 +5081,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B251">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C251">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D251">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="F251">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row spans="1:13" r="252">
@@ -5098,16 +5098,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B252">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C252">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D252">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="F252">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row spans="1:13" r="253">
@@ -5115,16 +5115,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B253">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C253">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D253">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="F253">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row spans="1:13" r="254">
@@ -5132,16 +5132,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B254">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C254">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D254">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="F254">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row spans="1:13" r="255">
@@ -5149,16 +5149,16 @@
         <v>17</v>
       </c>
       <c t="s" r="B255">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C255">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="D255">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="F255">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row spans="1:13" r="256">
@@ -5166,48 +5166,41 @@
         <v>17</v>
       </c>
       <c t="s" r="B256">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="C256">
+        <v>93</v>
+      </c>
+      <c t="s" r="D256">
+        <v>52</v>
+      </c>
+      <c t="s" r="F256">
+        <v>91</v>
+      </c>
+    </row>
+    <row spans="1:13" r="257">
+      <c t="n" s="1" r="A257">
+        <v>17</v>
+      </c>
+      <c t="s" s="1" r="B257">
+        <v>51</v>
+      </c>
+      <c t="s" s="1" r="C257">
+        <v>93</v>
+      </c>
+      <c t="s" s="1" r="D257">
+        <v>89</v>
+      </c>
+      <c t="s" s="1" r="E257"/>
+      <c t="s" s="1" r="F257">
         <v>92</v>
       </c>
-      <c t="s" r="D256">
-        <v>51</v>
-      </c>
-      <c t="s" r="F256">
-        <v>90</v>
-      </c>
-    </row>
-    <row spans="1:13" r="257">
-      <c t="n" r="A257">
-        <v>17</v>
-      </c>
-      <c t="s" r="B257">
-        <v>50</v>
-      </c>
-      <c t="s" r="C257">
-        <v>92</v>
-      </c>
-      <c t="s" r="D257">
-        <v>88</v>
-      </c>
-      <c t="s" r="F257">
-        <v>91</v>
-      </c>
-    </row>
-    <row spans="1:13" r="258">
-      <c t="s" s="1" r="B258"/>
-      <c t="s" s="1" r="C258"/>
-      <c t="s" s="1" r="D258"/>
-      <c t="s" s="1" r="E258"/>
-      <c t="s" s="1" r="F258"/>
-      <c t="s" s="1" r="G258"/>
-      <c t="s" s="1" r="H258"/>
-      <c t="s" s="1" r="I258"/>
-      <c t="s" s="1" r="J258"/>
-      <c t="s" s="1" r="K258"/>
-      <c t="s" s="1" r="L258"/>
-      <c t="s" s="1" r="M258"/>
+      <c t="s" s="1" r="G257"/>
+      <c t="s" s="1" r="H257"/>
+      <c t="s" s="1" r="I257"/>
+      <c t="s" s="1" r="J257"/>
+      <c t="s" s="1" r="K257"/>
+      <c t="s" s="1" r="L257"/>
     </row>
   </sheetData>
 </worksheet>
